--- a/Cache_Ignite_Notes.xlsx
+++ b/Cache_Ignite_Notes.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="CookBook" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Ignite</t>
   </si>
@@ -138,12 +139,28 @@
   <si>
     <t>send operation/function to service to update; Instead of having read and write separate;</t>
   </si>
+  <si>
+    <t>Start Server</t>
+  </si>
+  <si>
+    <t>ignite-2.6.0&gt;bin\ignite.bat C:\Users\pg38446\git\merit\springb-ignite-cache\src\main\resources\ignite-cache-server-0.xml</t>
+  </si>
+  <si>
+    <t>Web Console</t>
+  </si>
+  <si>
+    <t>set JVM_OPTS=-Dhttp.proxyHost=&lt;proxy-hostname&gt; -Dhttp.proxyPort=&lt;proxy-port&gt; -Dhttp.proxyUsername=&lt;proxy-username&gt; -Dhttp.proxyPassword=&lt;proxy-password&gt;
+./ignite-web-agent.bat</t>
+  </si>
+  <si>
+    <t>set IGNITE_HOME=C:\Users\pg38446\Apps\ignite-2.6.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +173,12 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -391,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -415,67 +438,73 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,21 +788,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="26" customWidth="1"/>
     <col min="3" max="5" width="36.7109375" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="23"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -788,7 +817,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="24"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -803,17 +832,17 @@
     </row>
     <row r="3" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="7"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -822,13 +851,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="7"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -837,17 +866,17 @@
     </row>
     <row r="5" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="7"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -856,13 +885,13 @@
     </row>
     <row r="6" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="7"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -871,13 +900,13 @@
     </row>
     <row r="7" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -886,8 +915,8 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -903,19 +932,19 @@
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="7"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -926,17 +955,17 @@
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -947,19 +976,19 @@
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -970,17 +999,17 @@
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="7"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -991,17 +1020,17 @@
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="7"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1012,17 +1041,17 @@
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="7"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1033,17 +1062,17 @@
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="7"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1054,17 +1083,17 @@
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="7"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1075,17 +1104,17 @@
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="7"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1096,17 +1125,17 @@
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="7"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1115,13 +1144,13 @@
     </row>
     <row r="19" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="7"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1130,13 +1159,13 @@
     </row>
     <row r="20" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1145,7 +1174,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="24"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1160,15 +1189,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="7"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1177,13 +1206,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="7"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1192,13 +1221,13 @@
     </row>
     <row r="24" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="7"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1207,13 +1236,13 @@
     </row>
     <row r="25" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1222,7 +1251,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="24"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1237,17 +1266,17 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="7"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1256,13 +1285,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="7"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1271,13 +1300,13 @@
     </row>
     <row r="29" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="7"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1286,7 +1315,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="27"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1301,7 +1330,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="27"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1316,7 +1345,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1331,7 +1360,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="27"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1346,7 +1375,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="27"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1361,7 +1390,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="27"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1376,7 +1405,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="27"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1391,7 +1420,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="27"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1406,7 +1435,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="27"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1421,7 +1450,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="27"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1436,7 +1465,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="27"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1451,7 +1480,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="27"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1466,7 +1495,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="27"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1481,7 +1510,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="27"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1496,7 +1525,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="27"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1511,7 +1540,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="27"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1526,7 +1555,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="27"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1541,7 +1570,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="27"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1556,7 +1585,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="27"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1571,7 +1600,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="27"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1586,7 +1615,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="27"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1601,7 +1630,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="27"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1616,7 +1645,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="27"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1631,7 +1660,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="27"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1646,7 +1675,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="27"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1661,7 +1690,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="27"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1676,7 +1705,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="27"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1691,7 +1720,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="27"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1706,7 +1735,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="27"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1721,7 +1750,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="27"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1736,7 +1765,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="27"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1751,7 +1780,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="27"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1766,7 +1795,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="27"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1781,7 +1810,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="27"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1796,7 +1825,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="27"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1811,7 +1840,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="27"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1826,7 +1855,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="27"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1841,7 +1870,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="27"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -1856,7 +1885,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="27"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -1871,7 +1900,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="27"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -1886,7 +1915,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="27"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -1901,7 +1930,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="27"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -1916,7 +1945,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="27"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -1931,7 +1960,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="27"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -1946,7 +1975,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="27"/>
+      <c r="B74" s="25"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -1961,7 +1990,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="27"/>
+      <c r="B75" s="25"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -1976,7 +2005,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="27"/>
+      <c r="B76" s="25"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -1991,7 +2020,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="27"/>
+      <c r="B77" s="25"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2006,7 +2035,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="27"/>
+      <c r="B78" s="25"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2021,7 +2050,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="27"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2036,7 +2065,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="27"/>
+      <c r="B80" s="25"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2051,7 +2080,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="27"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2066,7 +2095,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="27"/>
+      <c r="B82" s="25"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2081,7 +2110,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="27"/>
+      <c r="B83" s="25"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2096,7 +2125,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="27"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2111,7 +2140,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="27"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2126,7 +2155,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="27"/>
+      <c r="B86" s="25"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2141,7 +2170,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="27"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2156,7 +2185,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="27"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2171,7 +2200,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="27"/>
+      <c r="B89" s="25"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -2186,7 +2215,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="27"/>
+      <c r="B90" s="25"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2201,7 +2230,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="27"/>
+      <c r="B91" s="25"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2216,7 +2245,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="27"/>
+      <c r="B92" s="25"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -2231,7 +2260,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="27"/>
+      <c r="B93" s="25"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -2246,7 +2275,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="27"/>
+      <c r="B94" s="25"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -2261,7 +2290,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="27"/>
+      <c r="B95" s="25"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -2276,7 +2305,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="27"/>
+      <c r="B96" s="25"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -2291,7 +2320,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="27"/>
+      <c r="B97" s="25"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -2306,7 +2335,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="27"/>
+      <c r="B98" s="25"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -2321,7 +2350,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="27"/>
+      <c r="B99" s="25"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -2336,7 +2365,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="27"/>
+      <c r="B100" s="25"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -2351,7 +2380,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="27"/>
+      <c r="B101" s="25"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -2366,7 +2395,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="27"/>
+      <c r="B102" s="25"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -2381,7 +2410,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="27"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -2396,7 +2425,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="27"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -2411,7 +2440,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="27"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -2426,7 +2455,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="27"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -2441,7 +2470,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="27"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -2456,7 +2485,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="27"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -2471,7 +2500,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="27"/>
+      <c r="B109" s="25"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -2486,7 +2515,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="27"/>
+      <c r="B110" s="25"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -2501,7 +2530,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="27"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -2516,7 +2545,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="27"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -2531,7 +2560,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="27"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -2546,7 +2575,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="27"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -2561,7 +2590,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="27"/>
+      <c r="B115" s="25"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -2576,7 +2605,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="27"/>
+      <c r="B116" s="25"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -2596,4 +2625,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="2" max="2" width="24.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="72.42578125" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="B3" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Cache_Ignite_Notes.xlsx
+++ b/Cache_Ignite_Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Ignite</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>set IGNITE_HOME=C:\Users\pg38446\Apps\ignite-2.6.0</t>
+  </si>
+  <si>
+    <t>set JAVA_HOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export </t>
+  </si>
+  <si>
+    <t>export IGNITE_HOME=/u1/apps/ignite/apache-ignite-fabric-2.6.0
+/u1/apps/ignite/apache-ignite-fabric-2.6.0/bin/ignite.sh /u1/apps/ignite/ignite-cache-server.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+export IGNITE_HOME=/u1/apps/ignite/apache-ignite-fabric-2.6.0
+/u1/apps/ignite/apache-ignite-fabric-2.6.0/bin
+/u1/apps/ignite/ignite-cache-server.xml
+&gt;bin/ignite.sh /u1/apps/ignite/ignite-cache-server.xml &amp; 
+</t>
   </si>
 </sst>
 </file>
@@ -414,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -494,16 +512,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -788,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -835,11 +856,11 @@
       <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
@@ -2629,39 +2650,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
-    <col min="2" max="2" width="24.7109375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="72.42578125" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="2" max="2" width="15" style="28" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="72.42578125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="29" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D3" s="27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="E3" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="48" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="E4" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="48" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D5" s="27" t="s">
         <v>33</v>
       </c>
     </row>
